--- a/outputs/bbmri-cohorts-collection-EXAMPLE.xlsx
+++ b/outputs/bbmri-cohorts-collection-EXAMPLE.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>collection_id</t>
+          <t>collection</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,27 +451,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>age_range</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sample_type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>disease</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>age_range</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>sample_type</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>patient_id</t>
+          <t>number_of_samples</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>sample_id</t>
+          <t>number_of_donors</t>
         </is>
       </c>
     </row>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="G2" t="n">
+        <v>19</v>
+      </c>
+      <c r="H2" t="n">
         <v>22</v>
-      </c>
-      <c r="H2" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H3" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" t="n">
         <v>22</v>
@@ -659,10 +659,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -811,10 +811,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H11" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H13" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="G14" t="n">
+        <v>21</v>
+      </c>
+      <c r="H14" t="n">
         <v>25</v>
-      </c>
-      <c r="H14" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
@@ -1077,10 +1077,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20">
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H22" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -1305,10 +1305,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="G24" t="n">
+        <v>15</v>
+      </c>
+      <c r="H24" t="n">
         <v>19</v>
-      </c>
-      <c r="H24" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1381,10 +1381,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="H26" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H28" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H30" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1612,7 +1612,7 @@
         <v>20</v>
       </c>
       <c r="H31" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
@@ -1647,10 +1647,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H32" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
@@ -1688,7 +1688,7 @@
         <v>22</v>
       </c>
       <c r="H33" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -1723,10 +1723,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H34" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
@@ -1761,10 +1761,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H35" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H36" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="G37" t="n">
+        <v>21</v>
+      </c>
+      <c r="H37" t="n">
         <v>23</v>
-      </c>
-      <c r="H37" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="38">
@@ -1875,10 +1875,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H38" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
@@ -1913,10 +1913,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H39" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40">
@@ -1951,10 +1951,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H40" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41">
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H41" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H42" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
@@ -2065,10 +2065,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H43" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -2103,10 +2103,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H44" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -2141,10 +2141,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H45" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="G46" t="n">
+        <v>18</v>
+      </c>
+      <c r="H46" t="n">
         <v>21</v>
-      </c>
-      <c r="H46" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="47">
@@ -2217,10 +2217,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H47" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48">
@@ -2255,10 +2255,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H48" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -2293,10 +2293,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H49" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50">
@@ -2331,10 +2331,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H50" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51">
@@ -2372,7 +2372,7 @@
         <v>19</v>
       </c>
       <c r="H51" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52">
@@ -2407,10 +2407,10 @@
         </is>
       </c>
       <c r="G52" t="n">
+        <v>20</v>
+      </c>
+      <c r="H52" t="n">
         <v>22</v>
-      </c>
-      <c r="H52" t="n">
-        <v>25</v>
       </c>
     </row>
     <row r="53">
@@ -2445,10 +2445,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H53" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H54" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55">
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H55" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H57" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H58" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59">
@@ -2673,7 +2673,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H59" t="n">
         <v>28</v>
@@ -2711,10 +2711,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H60" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
@@ -2749,10 +2749,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H61" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -2787,10 +2787,10 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H62" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63">
@@ -2825,10 +2825,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H63" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64">
@@ -2863,10 +2863,10 @@
         </is>
       </c>
       <c r="G64" t="n">
+        <v>18</v>
+      </c>
+      <c r="H64" t="n">
         <v>22</v>
-      </c>
-      <c r="H64" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="65">
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H65" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
@@ -2939,10 +2939,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H66" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67">
@@ -2977,10 +2977,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H67" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H68" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -3053,10 +3053,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H69" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3094,7 +3094,7 @@
         <v>19</v>
       </c>
       <c r="H70" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3129,10 +3129,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H71" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72">
@@ -3167,10 +3167,10 @@
         </is>
       </c>
       <c r="G72" t="n">
+        <v>17</v>
+      </c>
+      <c r="H72" t="n">
         <v>22</v>
-      </c>
-      <c r="H72" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="73">
@@ -3205,10 +3205,10 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H73" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="74">
@@ -3243,10 +3243,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H74" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75">
@@ -3281,10 +3281,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H75" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
@@ -3319,10 +3319,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H76" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77">
@@ -3357,10 +3357,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H77" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78">
@@ -3395,10 +3395,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H78" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79">
@@ -3433,10 +3433,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H79" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H80" t="n">
         <v>22</v>
@@ -3509,10 +3509,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="H81" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82">
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H82" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
@@ -3585,10 +3585,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H83" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="G84" t="n">
+        <v>20</v>
+      </c>
+      <c r="H84" t="n">
         <v>22</v>
-      </c>
-      <c r="H84" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="85">
@@ -3661,10 +3661,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H85" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86">
@@ -3699,10 +3699,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H86" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
@@ -3737,10 +3737,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H87" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88">
@@ -3775,10 +3775,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H88" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89">
@@ -3813,10 +3813,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H89" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H90" t="n">
         <v>22</v>
@@ -3892,7 +3892,7 @@
         <v>23</v>
       </c>
       <c r="H91" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
@@ -3927,10 +3927,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H92" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
@@ -3965,10 +3965,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H93" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
@@ -4003,10 +4003,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H94" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95">
@@ -4041,10 +4041,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H95" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
@@ -4079,10 +4079,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H96" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97">
@@ -4117,7 +4117,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H97" t="n">
         <v>25</v>
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H98" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
@@ -4193,10 +4193,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H99" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H100" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101">
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H101" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
@@ -4307,10 +4307,10 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H102" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103">
@@ -4345,10 +4345,10 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H103" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="104">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H104" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105">
@@ -4421,10 +4421,10 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H105" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106">
@@ -4459,10 +4459,10 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H106" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107">
@@ -4497,10 +4497,10 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H107" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108">
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H108" t="n">
         <v>24</v>
@@ -4573,10 +4573,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H109" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
@@ -4614,7 +4614,7 @@
         <v>24</v>
       </c>
       <c r="H110" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111">
@@ -4649,10 +4649,10 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H111" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H112" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
@@ -4725,10 +4725,10 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H113" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/bbmri-cohorts-collection-EXAMPLE.xlsx
+++ b/outputs/bbmri-cohorts-collection-EXAMPLE.xlsx
@@ -385,12 +385,6 @@
     <t>MALE</t>
   </si>
   <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>C34.9</t>
-  </si>
-  <si>
     <t>Adolescent</t>
   </si>
   <si>
@@ -422,6 +416,12 @@
   </si>
   <si>
     <t>TISSUE_PARAFFIN_EMBEDDED</t>
+  </si>
+  <si>
+    <t>urn:miriam:icd:C18</t>
+  </si>
+  <si>
+    <t>urn:miriam:icd:C34.9</t>
   </si>
 </sst>
 </file>
@@ -825,10 +825,10 @@
         <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -851,16 +851,16 @@
         <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -877,16 +877,16 @@
         <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F4" t="s">
         <v>134</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -903,16 +903,16 @@
         <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F5" t="s">
         <v>135</v>
       </c>
       <c r="G5">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H5">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -929,16 +929,16 @@
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -955,16 +955,16 @@
         <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H7">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -981,16 +981,16 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
         <v>134</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H8">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1007,16 +1007,16 @@
         <v>123</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F9" t="s">
         <v>135</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1030,19 +1030,19 @@
         <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G10">
         <v>18</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1056,19 +1056,19 @@
         <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1082,10 +1082,10 @@
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
         <v>134</v>
@@ -1108,16 +1108,16 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F13" t="s">
         <v>135</v>
       </c>
       <c r="G13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13">
         <v>22</v>
@@ -1134,19 +1134,19 @@
         <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G14">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H14">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1160,19 +1160,19 @@
         <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G15">
+        <v>21</v>
+      </c>
+      <c r="H15">
         <v>22</v>
-      </c>
-      <c r="H15">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1186,19 +1186,19 @@
         <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F16" t="s">
         <v>134</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1212,19 +1212,19 @@
         <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
         <v>135</v>
       </c>
       <c r="G17">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H17">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1238,19 +1238,19 @@
         <v>121</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G18">
         <v>18</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1264,16 +1264,16 @@
         <v>121</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H19">
         <v>24</v>
@@ -1290,19 +1290,19 @@
         <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F20" t="s">
         <v>134</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1316,19 +1316,19 @@
         <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F21" t="s">
         <v>135</v>
       </c>
       <c r="G21">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1342,19 +1342,19 @@
         <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G22">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1368,19 +1368,19 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1394,19 +1394,19 @@
         <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
         <v>134</v>
       </c>
       <c r="G24">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H24">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1420,10 +1420,10 @@
         <v>121</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s">
         <v>135</v>
@@ -1446,19 +1446,19 @@
         <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G26">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H26">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1472,19 +1472,19 @@
         <v>121</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G27">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H27">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1498,7 +1498,7 @@
         <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
         <v>131</v>
@@ -1507,10 +1507,10 @@
         <v>134</v>
       </c>
       <c r="G28">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H28">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1524,7 +1524,7 @@
         <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
         <v>131</v>
@@ -1533,10 +1533,10 @@
         <v>135</v>
       </c>
       <c r="G29">
+        <v>18</v>
+      </c>
+      <c r="H29">
         <v>22</v>
-      </c>
-      <c r="H29">
-        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1550,19 +1550,19 @@
         <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G30">
         <v>20</v>
       </c>
       <c r="H30">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1576,19 +1576,19 @@
         <v>121</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F31" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G31">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H31">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1602,19 +1602,19 @@
         <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
         <v>134</v>
       </c>
       <c r="G32">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H32">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1628,10 +1628,10 @@
         <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
         <v>135</v>
@@ -1640,7 +1640,7 @@
         <v>17</v>
       </c>
       <c r="H33">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1654,19 +1654,19 @@
         <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G34">
+        <v>24</v>
+      </c>
+      <c r="H34">
         <v>26</v>
-      </c>
-      <c r="H34">
-        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1680,16 +1680,16 @@
         <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H35">
         <v>24</v>
@@ -1706,16 +1706,16 @@
         <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F36" t="s">
         <v>134</v>
       </c>
       <c r="G36">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H36">
         <v>26</v>
@@ -1732,19 +1732,19 @@
         <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F37" t="s">
         <v>135</v>
       </c>
       <c r="G37">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H37">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1758,19 +1758,19 @@
         <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F38" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G38">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H38">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1784,19 +1784,19 @@
         <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F39" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G39">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H39">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1810,19 +1810,19 @@
         <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F40" t="s">
         <v>134</v>
       </c>
       <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40">
         <v>25</v>
-      </c>
-      <c r="H40">
-        <v>26</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1836,19 +1836,19 @@
         <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F41" t="s">
         <v>135</v>
       </c>
       <c r="G41">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H41">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1862,19 +1862,19 @@
         <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F42" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G42">
         <v>19</v>
       </c>
       <c r="H42">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1888,19 +1888,19 @@
         <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G43">
         <v>19</v>
       </c>
       <c r="H43">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1914,19 +1914,19 @@
         <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E44" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F44" t="s">
         <v>134</v>
       </c>
       <c r="G44">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H44">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1940,19 +1940,19 @@
         <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F45" t="s">
         <v>135</v>
       </c>
       <c r="G45">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H45">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1966,19 +1966,19 @@
         <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E46" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F46" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G46">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H46">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1992,19 +1992,19 @@
         <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F47" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G47">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H47">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2018,19 +2018,19 @@
         <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E48" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F48" t="s">
         <v>134</v>
       </c>
       <c r="G48">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H48">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2044,19 +2044,19 @@
         <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F49" t="s">
         <v>135</v>
       </c>
       <c r="G49">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2070,19 +2070,19 @@
         <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E50" t="s">
         <v>130</v>
       </c>
       <c r="F50" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G50">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H50">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2096,19 +2096,19 @@
         <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E51" t="s">
         <v>130</v>
       </c>
       <c r="F51" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G51">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H51">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2122,19 +2122,19 @@
         <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F52" t="s">
         <v>134</v>
       </c>
       <c r="G52">
+        <v>17</v>
+      </c>
+      <c r="H52">
         <v>15</v>
-      </c>
-      <c r="H52">
-        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2148,19 +2148,19 @@
         <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E53" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F53" t="s">
         <v>135</v>
       </c>
       <c r="G53">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H53">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2174,19 +2174,19 @@
         <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F54" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G54">
         <v>21</v>
       </c>
       <c r="H54">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2200,19 +2200,19 @@
         <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E55" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F55" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G55">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H55">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2226,19 +2226,19 @@
         <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F56" t="s">
         <v>134</v>
       </c>
       <c r="G56">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H56">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2252,19 +2252,19 @@
         <v>121</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F57" t="s">
         <v>135</v>
       </c>
       <c r="G57">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H57">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2281,16 +2281,16 @@
         <v>123</v>
       </c>
       <c r="E58" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F58" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G58">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H58">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2307,16 +2307,16 @@
         <v>123</v>
       </c>
       <c r="E59" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F59" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G59">
         <v>22</v>
       </c>
       <c r="H59">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2333,16 +2333,16 @@
         <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F60" t="s">
         <v>134</v>
       </c>
       <c r="G60">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H60">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2359,16 +2359,16 @@
         <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F61" t="s">
         <v>135</v>
       </c>
       <c r="G61">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H61">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2385,16 +2385,16 @@
         <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F62" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G62">
+        <v>21</v>
+      </c>
+      <c r="H62">
         <v>23</v>
-      </c>
-      <c r="H62">
-        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2411,16 +2411,16 @@
         <v>123</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G63">
         <v>22</v>
       </c>
       <c r="H63">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2437,16 +2437,16 @@
         <v>123</v>
       </c>
       <c r="E64" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F64" t="s">
         <v>134</v>
       </c>
       <c r="G64">
+        <v>24</v>
+      </c>
+      <c r="H64">
         <v>22</v>
-      </c>
-      <c r="H64">
-        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2463,16 +2463,16 @@
         <v>123</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F65" t="s">
         <v>135</v>
       </c>
       <c r="G65">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2486,19 +2486,19 @@
         <v>122</v>
       </c>
       <c r="D66" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G66">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H66">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2512,19 +2512,19 @@
         <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F67" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G67">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H67">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2538,19 +2538,19 @@
         <v>122</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
         <v>134</v>
       </c>
       <c r="G68">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="H68">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2564,19 +2564,19 @@
         <v>122</v>
       </c>
       <c r="D69" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
         <v>135</v>
       </c>
       <c r="G69">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H69">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2590,19 +2590,19 @@
         <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E70" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G70">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H70">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2616,19 +2616,19 @@
         <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E71" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G71">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H71">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2642,19 +2642,19 @@
         <v>122</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E72" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
         <v>134</v>
       </c>
       <c r="G72">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H72">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2668,19 +2668,19 @@
         <v>122</v>
       </c>
       <c r="D73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E73" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F73" t="s">
         <v>135</v>
       </c>
       <c r="G73">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H73">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2694,19 +2694,19 @@
         <v>122</v>
       </c>
       <c r="D74" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E74" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F74" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G74">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H74">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2720,19 +2720,19 @@
         <v>122</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E75" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F75" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G75">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H75">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2746,19 +2746,19 @@
         <v>122</v>
       </c>
       <c r="D76" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F76" t="s">
         <v>134</v>
       </c>
       <c r="G76">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H76">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2772,19 +2772,19 @@
         <v>122</v>
       </c>
       <c r="D77" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E77" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F77" t="s">
         <v>135</v>
       </c>
       <c r="G77">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H77">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2798,19 +2798,19 @@
         <v>122</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E78" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F78" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G78">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H78">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2824,19 +2824,19 @@
         <v>122</v>
       </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F79" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G79">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H79">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2850,19 +2850,19 @@
         <v>122</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E80" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F80" t="s">
         <v>134</v>
       </c>
       <c r="G80">
+        <v>20</v>
+      </c>
+      <c r="H80">
         <v>21</v>
-      </c>
-      <c r="H80">
-        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2876,19 +2876,19 @@
         <v>122</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E81" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F81" t="s">
         <v>135</v>
       </c>
       <c r="G81">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H81">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2902,19 +2902,19 @@
         <v>122</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F82" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G82">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="H82">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2928,19 +2928,19 @@
         <v>122</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E83" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F83" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G83">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H83">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2954,7 +2954,7 @@
         <v>122</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E84" t="s">
         <v>131</v>
@@ -2963,10 +2963,10 @@
         <v>134</v>
       </c>
       <c r="G84">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H84">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2980,7 +2980,7 @@
         <v>122</v>
       </c>
       <c r="D85" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E85" t="s">
         <v>131</v>
@@ -2989,10 +2989,10 @@
         <v>135</v>
       </c>
       <c r="G85">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H85">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3006,19 +3006,19 @@
         <v>122</v>
       </c>
       <c r="D86" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E86" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F86" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G86">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H86">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3032,19 +3032,19 @@
         <v>122</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E87" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="F87" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G87">
+        <v>23</v>
+      </c>
+      <c r="H87">
         <v>27</v>
-      </c>
-      <c r="H87">
-        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3058,19 +3058,19 @@
         <v>122</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E88" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F88" t="s">
         <v>134</v>
       </c>
       <c r="G88">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H88">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3084,19 +3084,19 @@
         <v>122</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E89" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F89" t="s">
         <v>135</v>
       </c>
       <c r="G89">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H89">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3110,19 +3110,19 @@
         <v>122</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E90" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F90" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G90">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H90">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3136,19 +3136,19 @@
         <v>122</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E91" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F91" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G91">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H91">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3162,19 +3162,19 @@
         <v>122</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E92" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F92" t="s">
         <v>134</v>
       </c>
       <c r="G92">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H92">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3188,19 +3188,19 @@
         <v>122</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E93" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F93" t="s">
         <v>135</v>
       </c>
       <c r="G93">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H93">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3214,19 +3214,19 @@
         <v>122</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E94" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F94" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G94">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H94">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3240,19 +3240,19 @@
         <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E95" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F95" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G95">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H95">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3266,19 +3266,19 @@
         <v>122</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E96" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F96" t="s">
         <v>134</v>
       </c>
       <c r="G96">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H96">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3292,19 +3292,19 @@
         <v>122</v>
       </c>
       <c r="D97" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E97" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F97" t="s">
         <v>135</v>
       </c>
       <c r="G97">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H97">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3318,19 +3318,19 @@
         <v>122</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E98" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G98">
         <v>20</v>
       </c>
       <c r="H98">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3344,19 +3344,19 @@
         <v>122</v>
       </c>
       <c r="D99" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E99" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F99" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G99">
         <v>21</v>
       </c>
       <c r="H99">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3370,19 +3370,19 @@
         <v>122</v>
       </c>
       <c r="D100" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E100" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F100" t="s">
         <v>134</v>
       </c>
       <c r="G100">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H100">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3396,19 +3396,19 @@
         <v>122</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E101" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F101" t="s">
         <v>135</v>
       </c>
       <c r="G101">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H101">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3422,19 +3422,19 @@
         <v>122</v>
       </c>
       <c r="D102" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E102" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F102" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G102">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H102">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3448,19 +3448,19 @@
         <v>122</v>
       </c>
       <c r="D103" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E103" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F103" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G103">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H103">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3474,19 +3474,19 @@
         <v>122</v>
       </c>
       <c r="D104" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E104" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F104" t="s">
         <v>134</v>
       </c>
       <c r="G104">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H104">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3500,19 +3500,19 @@
         <v>122</v>
       </c>
       <c r="D105" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E105" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F105" t="s">
         <v>135</v>
       </c>
       <c r="G105">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H105">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3526,19 +3526,19 @@
         <v>122</v>
       </c>
       <c r="D106" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E106" t="s">
         <v>130</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G106">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H106">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3552,19 +3552,19 @@
         <v>122</v>
       </c>
       <c r="D107" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E107" t="s">
         <v>130</v>
       </c>
       <c r="F107" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G107">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H107">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3578,19 +3578,19 @@
         <v>122</v>
       </c>
       <c r="D108" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E108" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F108" t="s">
         <v>134</v>
       </c>
       <c r="G108">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H108">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3604,10 +3604,10 @@
         <v>122</v>
       </c>
       <c r="D109" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F109" t="s">
         <v>135</v>
@@ -3630,19 +3630,19 @@
         <v>122</v>
       </c>
       <c r="D110" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F110" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G110">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H110">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3656,19 +3656,19 @@
         <v>122</v>
       </c>
       <c r="D111" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E111" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F111" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G111">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H111">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3682,19 +3682,19 @@
         <v>122</v>
       </c>
       <c r="D112" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E112" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F112" t="s">
         <v>134</v>
       </c>
       <c r="G112">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H112">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3708,16 +3708,16 @@
         <v>122</v>
       </c>
       <c r="D113" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E113" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F113" t="s">
         <v>135</v>
       </c>
       <c r="G113">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H113">
         <v>26</v>
